--- a/Test/Testcase_template.xlsx
+++ b/Test/Testcase_template.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martinbærbar\Dropbox\Datamatiker\DMU15\PTE projekt\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="6120"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
     <sheet name="Ark2" sheetId="2" r:id="rId2"/>
     <sheet name="Ark3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -149,9 +145,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kontor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -189,7 +185,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kontor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -261,7 +257,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kontor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -411,31 +407,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -458,7 +454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -471,7 +467,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -482,7 +478,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -493,7 +489,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -504,7 +500,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -515,7 +511,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -526,7 +522,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -537,7 +533,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -548,7 +544,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -561,7 +557,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -572,7 +568,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -583,7 +579,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -594,7 +590,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -605,7 +601,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -616,7 +612,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -627,7 +623,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -638,7 +634,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -649,7 +645,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -660,7 +656,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -671,7 +667,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -682,7 +678,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -693,7 +689,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -704,7 +700,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -715,7 +711,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -726,7 +722,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -737,7 +733,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -748,7 +744,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -759,7 +755,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -770,7 +766,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -781,7 +777,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -804,7 +800,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -816,7 +812,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
